--- a/biology/Zoologie/Hemiptera/Hemiptera.xlsx
+++ b/biology/Zoologie/Hemiptera/Hemiptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hémiptères (Hemiptera) sont un ordre d'insectes, de sous-classe des ptérygotes, de la section des néoptères et du super-ordre des paranéoptères.
-Cet ordre comprend près de 100 000 espèces d'insectes le plus souvent suceurs de phloème, comme les cigales, pucerons, cochenilles et punaises. Son existence remonte à plus de 250 millions d'années[1].
+Cet ordre comprend près de 100 000 espèces d'insectes le plus souvent suceurs de phloème, comme les cigales, pucerons, cochenilles et punaises. Son existence remonte à plus de 250 millions d'années.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de cet ordre sont caractérisés par :
 des antennes longues ;
 des pièces buccales piqueuses avec un long rostre articulé, des palpes maxillaires et labiaux absents ;
 deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre chez les hétéroptères.
 Le développement est du type hétérométabole paurométabole.
-90 % des espèces connues sont phytophages[2].
+90 % des espèces connues sont phytophages.
 </t>
         </is>
       </c>
@@ -548,18 +562,55 @@
           <t>Évolution de la classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des hémiptères a longtemps été appelé Rhynchota, ou Rhyncotes[3] en français, du grec scientifique ῥύγχος, rhúgkhos, signifiant « bec », « nez », « groin », en raison du rostre piqueur-suceur qui les caractérise parmi tous les autres insectes. Rincoti est le nom italien pour désigner les hémiptères.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des hémiptères a longtemps été appelé Rhynchota, ou Rhyncotes en français, du grec scientifique ῥύγχος, rhúgkhos, signifiant « bec », « nez », « groin », en raison du rostre piqueur-suceur qui les caractérise parmi tous les autres insectes. Rincoti est le nom italien pour désigner les hémiptères.
 Il était traditionnellement subdivisé en deux sous-ordres : les homoptères (cigales, cicadelles, pucerons, cochenilles, etc.) et les hétéroptères (punaises). Cette différenciation était basée sur la structure des ailes et la position du rostre. L'ordre est maintenant divisé en au moins 4 sous-ordres, après qu'il a été établi que les familles regroupées dans le taxon Homoptera constituaient un groupe paraphylétique.
 Liste des sous-ordres actuels :
 Auchenorrhyncha Duméril, 1806
 Coleorrhyncha Myers &amp; China, 1929
 Heteroptera Latreille, 1810
 Sternorrhyncha Duméril, 1806
-Le cladogramme ci-dessous montre le placement des hémiptères dans les paranéoptères, ainsi que la relation entre les quatre sous-ordres des hémiptères. Les noms sont indiqués entre parenthèses lorsque cela est possible[4].
-Liste des familles
-Liste des familles selon BioLib                    (8 octobre 2020)[5] :
+Le cladogramme ci-dessous montre le placement des hémiptères dans les paranéoptères, ainsi que la relation entre les quatre sous-ordres des hémiptères. Les noms sont indiqués entre parenthèses lorsque cela est possible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hemiptera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiptera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Évolution de la classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des familles selon BioLib                    (8 octobre 2020) :
 famille Acanaloniidae Amyot &amp; Audinet-Serville, 1843
 famille Acanthosomatidae Signoret, 1863
 famille Achilidae Stål, 1866
